--- a/Monthly Budget.xlsx
+++ b/Monthly Budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santosh Poudel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFB735-F07D-43B8-9002-7C5F230703DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68218EF4-6078-4ACF-BC83-B7C43312B711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{9AD9AFBA-BDB7-4DF3-A88C-594B643816E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9AD9AFBA-BDB7-4DF3-A88C-594B643816E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <r>
       <t xml:space="preserve">Monthly </t>
@@ -67,28 +68,34 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
     <t>Bills/Mon</t>
+  </si>
+  <si>
+    <t>Per.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Candy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +156,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,23 +181,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,242 +518,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE23C89-1EDF-4955-A172-F70014269F18}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="F4:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="4" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44287</v>
+      </c>
+      <c r="H6" s="6">
+        <v>44317</v>
+      </c>
+      <c r="I6" s="6">
+        <v>44348</v>
+      </c>
+      <c r="J6" s="6">
+        <v>44378</v>
+      </c>
+      <c r="K6" s="6">
+        <v>44409</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="1">
-        <f>SUM(B4:F4)</f>
+      <c r="G7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(G7:K7)</f>
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="M7">
+        <f>L7/$L$14*100</f>
+        <v>21.834061135371179</v>
+      </c>
+      <c r="N7" s="10">
+        <f>AVERAGE(G7:K7)</f>
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <f>MIN(G7:K7)</f>
+        <v>2000</v>
+      </c>
+      <c r="P7">
+        <f>MAX(G7:K7)</f>
+        <v>2000</v>
+      </c>
+      <c r="Q7">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="G8" s="1">
+        <v>550</v>
+      </c>
+      <c r="H8" s="1">
+        <v>250</v>
+      </c>
+      <c r="I8" s="1">
+        <v>400</v>
+      </c>
+      <c r="J8" s="1">
+        <v>450</v>
+      </c>
+      <c r="K8" s="1">
         <v>500</v>
       </c>
-      <c r="C5" s="1">
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L14" si="0">SUM(G8:K8)</f>
+        <v>2150</v>
+      </c>
+      <c r="M8">
+        <f>L8/$L$14*100</f>
+        <v>4.6943231441048034</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" ref="N8:N14" si="1">AVERAGE(G8:K8)</f>
+        <v>430</v>
+      </c>
+      <c r="O8">
+        <f>MIN(G8:K8)</f>
         <v>250</v>
       </c>
-      <c r="D5" s="1">
+      <c r="P8">
+        <f>MAX(G8:K8)</f>
+        <v>550</v>
+      </c>
+      <c r="Q8">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>18700</v>
+      </c>
+      <c r="M9">
+        <f>L9/$L$14*100</f>
+        <v>40.829694323144103</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
+        <v>3740</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O14" si="2">MIN(G9:K9)</f>
+        <v>3500</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P14" si="3">MAX(G9:K9)</f>
+        <v>4000</v>
+      </c>
+      <c r="Q9">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1">
+        <v>250</v>
+      </c>
+      <c r="I10" s="1">
         <v>400</v>
       </c>
-      <c r="E5" s="1">
-        <v>450</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="J10" s="1">
         <v>500</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5:G11" si="0">SUM(B5:F5)</f>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3800</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3500</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>18800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>250</v>
-      </c>
-      <c r="D7" s="1">
-        <v>400</v>
-      </c>
-      <c r="E7" s="1">
-        <v>500</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="K10" s="1">
         <v>300</v>
       </c>
-      <c r="G7" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="M10">
+        <f>L10/$L$14*100</f>
+        <v>4.2576419213973802</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="Q10">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="G11" s="1">
         <v>1500</v>
       </c>
-      <c r="C8" s="1">
+      <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="I11" s="1">
         <v>1500</v>
       </c>
-      <c r="E8" s="1">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="K11" s="1">
         <v>1500</v>
       </c>
-      <c r="G8" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="M11">
+        <f>L11/$L$14*100</f>
+        <v>9.8253275109170293</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="Q11">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1">
-        <v>200</v>
-      </c>
-      <c r="F9" s="1">
-        <v>200</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G12" s="1">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
+      <c r="I12" s="1">
+        <v>200</v>
+      </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>200</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="M12">
+        <f>L12/$L$14*100</f>
+        <v>2.1834061135371177</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="Q12">
+        <f>COUNT($G$7:$G$13)</f>
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
         <v>1500</v>
       </c>
-      <c r="C10" s="1">
+      <c r="H13" s="1">
         <v>1400</v>
       </c>
-      <c r="D10" s="1">
+      <c r="I13" s="1">
         <v>1600</v>
       </c>
-      <c r="E10" s="1">
+      <c r="J13" s="1">
         <v>1700</v>
       </c>
-      <c r="F10" s="1">
+      <c r="K13" s="1">
         <v>1300</v>
       </c>
-      <c r="G10" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="M13">
+        <f>L13/$L$14*100</f>
+        <v>16.375545851528383</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="Q13">
+        <f>COUNT($G$7:$G$13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <f>SUM(B4:B10)</f>
-        <v>10200</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:F11" si="1">SUM(C4:C10)</f>
-        <v>8600</v>
-      </c>
-      <c r="D11">
+      <c r="G14" s="9">
+        <f>SUM(G7:G13)</f>
+        <v>10050</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H7:H13)</f>
+        <v>8100</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14:M14" si="4">SUM(I7:I13)</f>
+        <v>9900</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="4"/>
+        <v>8350</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>9400</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>45800</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="1"/>
-        <v>9900</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>8350</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>8800</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>45850</v>
-      </c>
+        <v>9160</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C222050F-1AE4-403B-A458-1FF3364B62E3}">
+  <dimension ref="A4:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44287</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44317</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44348</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44378</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44409</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44440</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SUM(B7:G7)</f>
+        <v>12000</v>
+      </c>
+      <c r="I7">
+        <f>H7/$H$15</f>
+        <v>0.21857923497267759</v>
+      </c>
+      <c r="J7" s="10">
+        <f>AVERAGE(B7:G7)</f>
+        <v>2000</v>
+      </c>
+      <c r="K7">
+        <f>MIN(B7:G7)</f>
+        <v>2000</v>
+      </c>
+      <c r="L7">
+        <f>MAX(B7:G7)</f>
+        <v>2000</v>
+      </c>
+      <c r="M7">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>550</v>
+      </c>
+      <c r="C8" s="1">
+        <v>250</v>
+      </c>
+      <c r="D8" s="1">
+        <v>400</v>
+      </c>
+      <c r="E8" s="1">
+        <v>450</v>
+      </c>
+      <c r="F8" s="1">
+        <v>500</v>
+      </c>
+      <c r="G8" s="1">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H14" si="0">SUM(B8:G8)</f>
+        <v>2650</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I15" si="1">H8/$H$15</f>
+        <v>4.8269581056466303E-2</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J15" si="2">AVERAGE(B8:G8)</f>
+        <v>441.66666666666669</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K14" si="3">MIN(B8:G8)</f>
+        <v>250</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L15" si="4">MAX(B8:G8)</f>
+        <v>550</v>
+      </c>
+      <c r="M8">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>22300</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.40619307832422585</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="2"/>
+        <v>3716.6666666666665</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="M9">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>500</v>
+      </c>
+      <c r="C10" s="1">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>300</v>
+      </c>
+      <c r="G10" s="1">
+        <v>300</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.0983606557377046E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1">
+        <v>200</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2.185792349726776E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="M11">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8.1967213114754092E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="M12">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1">
+        <v>200</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.185792349726776E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="M13">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1700</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1300</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.16029143897996356</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>1466.6666666666667</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="M14">
+        <f>COUNT($E$7:$E$14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9">
+        <f>SUM(B7:B14)</f>
+        <v>10250</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C7:C14)</f>
+        <v>8300</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ref="D15:I15" si="5">SUM(D7:D14)</f>
+        <v>10100</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="5"/>
+        <v>8550</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="5"/>
+        <v>9600</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUM(G7:G14)</f>
+        <v>8100</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(B15:G15)</f>
+        <v>54900</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <f>AVERAGE(B15:G15)</f>
+        <v>9150</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K9:K15" si="6">MIN(B15:F15)</f>
+        <v>8300</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>10250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B15:G15" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>